--- a/data/trans_camb/P19C01-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P19C01-Provincia-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-17.07549474247323</v>
+        <v>-16.6653394636331</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-12.4556166998239</v>
+        <v>-12.15767068964309</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>56.80187911040518</v>
+        <v>57.62170878180127</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-28.0041099953198</v>
+        <v>-26.65031105624328</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-14.12418951698325</v>
+        <v>-13.21507496259703</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>50.82784117144593</v>
+        <v>51.18968216665459</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-19.79456519910154</v>
+        <v>-19.5105560371915</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-11.03863589604962</v>
+        <v>-10.22852127683496</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>56.65955984554607</v>
+        <v>55.84959690111189</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.809449018703687</v>
+        <v>-0.5979812332787036</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.226744883479037</v>
+        <v>4.942922519297274</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>71.11126565765443</v>
+        <v>71.67367191592997</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-10.01349351668644</v>
+        <v>-9.84546727994841</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.420760761160667</v>
+        <v>4.249104101966974</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>65.67327760559817</v>
+        <v>65.86784370130783</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-7.17481006471125</v>
+        <v>-8.008972234307686</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.972885716692249</v>
+        <v>1.728329837213823</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>66.44414756403218</v>
+        <v>66.37215595183562</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.5246028882121962</v>
+        <v>-0.5145911339071062</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3793541086880675</v>
+        <v>-0.3758310587097617</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>1.668547527069091</v>
+        <v>1.6699218576554</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.6650330507933828</v>
+        <v>-0.6574759416519749</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3334372464325706</v>
+        <v>-0.3198221782551913</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>1.174795711188734</v>
+        <v>1.169315619873389</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.5555554839205498</v>
+        <v>-0.5599768818566179</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.308854973750611</v>
+        <v>-0.2961202975308518</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>1.543368773099884</v>
+        <v>1.49101955823098</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.02249014748524419</v>
+        <v>-0.02097108055146972</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.2461828176264159</v>
+        <v>0.2185554566484816</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>3.257052511191607</v>
+        <v>3.307958780698253</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.3197510027979636</v>
+        <v>-0.3114323010317369</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1560206489927973</v>
+        <v>0.1370708300690998</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.228686157796113</v>
+        <v>2.246018170480923</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.2569112042528117</v>
+        <v>-0.2792822419570758</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.06926895707210436</v>
+        <v>0.06042921779451778</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>2.416965406337601</v>
+        <v>2.387785477247409</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>1.088545114464734</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>11.84024998471894</v>
+        <v>11.84024998471895</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-7.216536736086923</v>
+        <v>-7.375054185283823</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-9.069155519840979</v>
+        <v>-9.579775685863154</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.947433503314733</v>
+        <v>4.27248269997675</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-6.376516541925104</v>
+        <v>-6.580672977829686</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.617591866767556</v>
+        <v>-1.332571172993993</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>6.394600487796405</v>
+        <v>6.415463644001306</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-4.917625184455993</v>
+        <v>-4.849416378915673</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-3.141064066869426</v>
+        <v>-3.553553312209359</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>7.096515868898601</v>
+        <v>7.659857527425501</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.026341924189967</v>
+        <v>5.459258178990925</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.54295452537574</v>
+        <v>3.338479320704713</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>17.93856817607972</v>
+        <v>18.26144376434877</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.674892000676825</v>
+        <v>5.473904845380459</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>11.33385876832114</v>
+        <v>11.53436975054967</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>18.90224837872056</v>
+        <v>17.96867511105108</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>4.280553134619733</v>
+        <v>4.009167398277948</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>6.188512099769834</v>
+        <v>5.76520572427585</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>16.48535987071203</v>
+        <v>16.57832950152298</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.09408334342529094</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.3668861871337391</v>
+        <v>0.3668861871337393</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.0157261384861363</v>
@@ -974,7 +974,7 @@
         <v>0.1578039762135111</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4293380944309485</v>
+        <v>0.4293380944309483</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.01686598386656765</v>
@@ -983,7 +983,7 @@
         <v>0.03663839509696561</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.3985206963151804</v>
+        <v>0.3985206963151806</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2150326128094711</v>
+        <v>-0.219302489244513</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2775778401731566</v>
+        <v>-0.2898552986277351</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.1195958208730513</v>
+        <v>0.1280860865521789</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1974009013231718</v>
+        <v>-0.1965868489696723</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.04643399158724014</v>
+        <v>-0.04372146978941178</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1858265453740935</v>
+        <v>0.2021168650465055</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1530827140932348</v>
+        <v>-0.1521686609198337</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1008083598108429</v>
+        <v>-0.1117281458486188</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.2217992492811067</v>
+        <v>0.2370120063034946</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.2310642736581565</v>
+        <v>0.1992772067657295</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1734651651209771</v>
+        <v>0.12522311290796</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.681593853828903</v>
+        <v>0.6888232235189552</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.2170447309232535</v>
+        <v>0.2125932147929247</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4590240805910926</v>
+        <v>0.4354658038041653</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7082171751812438</v>
+        <v>0.681604865082742</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1558315807315063</v>
+        <v>0.1428930393967812</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2184955552726747</v>
+        <v>0.2122323301012317</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.595950684203009</v>
+        <v>0.5960405366298098</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.527919398819242</v>
+        <v>1.874186088875414</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>5.736262775808188</v>
+        <v>6.445923875498847</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9.041328564319166</v>
+        <v>8.709144588859177</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.358454649088191</v>
+        <v>3.168424529621709</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>7.027081032275468</v>
+        <v>6.399082760946574</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>9.214967586308413</v>
+        <v>9.409730829312611</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>4.996099081865009</v>
+        <v>5.050258146721117</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>8.369132601009699</v>
+        <v>8.388874110593338</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>11.39224473844926</v>
+        <v>11.69085328139641</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>17.31563030540171</v>
+        <v>17.71177420306969</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>20.92536562088966</v>
+        <v>21.51782146648084</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>25.09640715444257</v>
+        <v>25.08287661234619</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>18.63711813328872</v>
+        <v>18.25695879009205</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>21.58591015488794</v>
+        <v>21.37980064515518</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>22.80129888072232</v>
+        <v>22.96275889040984</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>15.61176224711099</v>
+        <v>15.17536147378929</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>18.65074541841535</v>
+        <v>19.23794734415129</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>21.74528627267326</v>
+        <v>22.00383803735367</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.5701547230228856</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.7230769512083554</v>
+        <v>0.7230769512083551</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.4269938825527659</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.03555963208171331</v>
+        <v>0.06312069858010935</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.1860587415552554</v>
+        <v>0.2268363656082</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.3045645618419863</v>
+        <v>0.3195411286205583</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.1125930388413186</v>
+        <v>0.115000697829054</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.2403367978202702</v>
+        <v>0.2187509498391</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3237968964290261</v>
+        <v>0.3259181173772572</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1851029785166035</v>
+        <v>0.1799336096768483</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.2994904709111819</v>
+        <v>0.2862883579936566</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.4035798413529284</v>
+        <v>0.4263465175146879</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.8574526351645908</v>
+        <v>0.8556002796404449</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.039461611981015</v>
+        <v>1.09613199508281</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.238535561179668</v>
+        <v>1.28899227835708</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.8702815487033105</v>
+        <v>0.8373458466518565</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.022852378183899</v>
+        <v>0.973368980997246</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.088891242188027</v>
+        <v>1.082904037170898</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7246501626263274</v>
+        <v>0.6911933917761981</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.8424311299242621</v>
+        <v>0.8742321599250494</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.9887742050250224</v>
+        <v>1.043725686980276</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-14.90710043127264</v>
+        <v>-15.23344305353969</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-14.99794290293073</v>
+        <v>-14.21833406225275</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-12.95487140090329</v>
+        <v>-12.317934621631</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-6.595588113295207</v>
+        <v>-6.562904422336715</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-15.46927131957366</v>
+        <v>-15.96408509757873</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-9.515870778300586</v>
+        <v>-9.840298074606798</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-8.558592267464951</v>
+        <v>-8.423262259798166</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-13.16392590050829</v>
+        <v>-12.45983324766218</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-8.967902706717371</v>
+        <v>-9.641654886981385</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.8531372811157033</v>
+        <v>0.7369605766778413</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5992276397124633</v>
+        <v>1.203389565008035</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.452200501958542</v>
+        <v>5.016839779557518</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9.171097062760223</v>
+        <v>8.077022817784629</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-0.7378002424340712</v>
+        <v>-1.200969378091904</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.980956943292756</v>
+        <v>3.964654395977823</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.785397230526647</v>
+        <v>2.634009680947373</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-2.239292340820548</v>
+        <v>-2.146779836550165</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.481180118585452</v>
+        <v>2.234303098994989</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.3571421028752874</v>
+        <v>-0.3766013317748086</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.3689883793382659</v>
+        <v>-0.3492027605599004</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3202630333592431</v>
+        <v>-0.3088902222816658</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1636036644227572</v>
+        <v>-0.1738405866216917</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4001083156975555</v>
+        <v>-0.4040528568875272</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2415667569620727</v>
+        <v>-0.2540326901608191</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2187736084850875</v>
+        <v>-0.2176212669398429</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.3377968210800661</v>
+        <v>-0.3311904371372688</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.226691068929354</v>
+        <v>-0.2459769878390602</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.03092922214475261</v>
+        <v>0.02514042812521734</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.01764259911767681</v>
+        <v>0.04173300790336669</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.1395708125751103</v>
+        <v>0.1564350197181475</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.3101252244280466</v>
+        <v>0.2550381884034632</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.01623566455469874</v>
+        <v>-0.03695983931829053</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1280482021939952</v>
+        <v>0.1309182751184898</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.08477500536907545</v>
+        <v>0.07903362163996637</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.06701470812102894</v>
+        <v>-0.06427589809114083</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.0769233466397882</v>
+        <v>0.06829751924811231</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>25.03120190188009</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>47.46958760321049</v>
+        <v>47.46958760321051</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>3.136413296488549</v>
@@ -1511,7 +1511,7 @@
         <v>24.8980149897904</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>47.26735393850603</v>
+        <v>47.26735393850602</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>1.381416992518952</v>
@@ -1520,7 +1520,7 @@
         <v>25.10513073702746</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>47.46709446582924</v>
+        <v>47.46709446582922</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-9.593030232707351</v>
+        <v>-10.36974605937356</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>14.04247131524314</v>
+        <v>13.19460190664526</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>38.91666928567586</v>
+        <v>39.51619625119952</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-7.611671524897449</v>
+        <v>-7.283334495265222</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>13.93090703001628</v>
+        <v>13.52652673590006</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>39.66958064878431</v>
+        <v>38.7585578975304</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-5.777414602839351</v>
+        <v>-6.578225803688116</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>17.35479720975911</v>
+        <v>17.36726459395419</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>40.82269357634269</v>
+        <v>41.25718254214681</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>10.16392080711245</v>
+        <v>9.684205366696522</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>36.58788780910262</v>
+        <v>35.57736673293677</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>56.30069203649337</v>
+        <v>56.32015227729465</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>12.72700734385533</v>
+        <v>13.60862051540478</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>35.09910737721869</v>
+        <v>34.77037704794723</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>55.47452711901578</v>
+        <v>55.82936885896045</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>9.150489736408611</v>
+        <v>8.720474864655833</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>32.8565597333906</v>
+        <v>32.42540241311816</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>52.72135364123498</v>
+        <v>52.85706835628881</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.6300836374086861</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1.194901089470842</v>
+        <v>1.194901089470843</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.07286630136831085</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2262024009844741</v>
+        <v>-0.2298438155579043</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.3089497012078208</v>
+        <v>0.2927954310208508</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.8408084922731838</v>
+        <v>0.8493267522809989</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1547359112707416</v>
+        <v>-0.1550503447899342</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.2822523236166478</v>
+        <v>0.264973626628202</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7907011050843666</v>
+        <v>0.7551178248192647</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.1291558786655193</v>
+        <v>-0.1422388351155347</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.3931795605229346</v>
+        <v>0.379269981496723</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.863753305209968</v>
+        <v>0.8841586043641171</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.2907598177892957</v>
+        <v>0.2820662931361866</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.07576703244468</v>
+        <v>1.043842485020859</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.751685338074366</v>
+        <v>1.750812737222662</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.3536067045723379</v>
+        <v>0.3673366762961678</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.9602641086695235</v>
+        <v>0.9133953042200247</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.569049257798565</v>
+        <v>1.560156485080424</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2475208767631569</v>
+        <v>0.2325690352360367</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.9116449363089613</v>
+        <v>0.868856604024814</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.423383489261547</v>
+        <v>1.472454828421698</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>13.21881508536335</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>19.70784211332303</v>
+        <v>19.70784211332304</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>6.687107477661508</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-2.725019906552761</v>
+        <v>-3.055464714450561</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>5.852277907285579</v>
+        <v>5.772470264335555</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>7.958898068762735</v>
+        <v>9.159282239208004</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-1.603377678483418</v>
+        <v>-1.779305849504002</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>3.961831615186052</v>
+        <v>3.581558608571981</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>11.62479100556496</v>
+        <v>11.33763549041651</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>0.6835141116109252</v>
+        <v>-0.1150468326390698</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>7.55968305433607</v>
+        <v>7.833006759117485</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>12.37529121122748</v>
+        <v>12.62937244220977</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>14.91584754615536</v>
+        <v>14.02490498306906</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>24.58988286072264</v>
+        <v>23.40268037606196</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>24.95417214409331</v>
+        <v>25.49180225910486</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>16.46518034206133</v>
+        <v>15.92763533025587</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>22.11302463214822</v>
+        <v>21.60537640258195</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>28.08918265046589</v>
+        <v>27.75900560610671</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>13.03766577517403</v>
+        <v>12.25929490942498</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>20.32205171685894</v>
+        <v>20.77842085757646</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>24.2673002062325</v>
+        <v>23.88592383714762</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>0.6117458990540015</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.71180173592255</v>
+        <v>0.7118017359225504</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.2361988327804123</v>
@@ -1830,7 +1830,7 @@
         <v>0.4159871799979962</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.6201924765287425</v>
+        <v>0.6201924765287429</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.2368911406542595</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.09858968405979408</v>
+        <v>-0.1121379713907562</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.1800439545580149</v>
+        <v>0.1744808723843326</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.2642708469515294</v>
+        <v>0.3034520938998034</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.05044081966673379</v>
+        <v>-0.05323746225358666</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.1082140423115928</v>
+        <v>0.09466755675679453</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.3076507284524378</v>
+        <v>0.293986675635391</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.01533544338591038</v>
+        <v>9.262331936943697e-05</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.2389685788688979</v>
+        <v>0.2391537810999896</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.3884920286402726</v>
+        <v>0.391841152103088</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.7709178522888445</v>
+        <v>0.7090156063250799</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.272484699763891</v>
+        <v>1.16556390551598</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1.321410994725545</v>
+        <v>1.289756042988673</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.6080897840986251</v>
+        <v>0.5829803941147103</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.8124482374080043</v>
+        <v>0.8138209216950754</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1.076099920134098</v>
+        <v>1.034352700731464</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.5394344668204104</v>
+        <v>0.492867072436376</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.8107071655710546</v>
+        <v>0.8371106954522414</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1.002329527842823</v>
+        <v>0.9589811902676402</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>27.75958581161085</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>36.78501798475227</v>
+        <v>36.78501798475226</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>13.64465951043459</v>
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>3.02370321603409</v>
+        <v>3.046243252343046</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>20.87902160042095</v>
+        <v>20.94466900479778</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>30.61480480768351</v>
+        <v>30.72910312041412</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>8.092349956318099</v>
+        <v>7.289765180504018</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>17.25894183782593</v>
+        <v>17.62280229499925</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>25.27218462439495</v>
+        <v>25.20152588495133</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>7.169630807018566</v>
+        <v>7.022331888767121</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>21.09176284112429</v>
+        <v>21.24590567209784</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>29.49684021595392</v>
+        <v>29.36213166909677</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>13.93660020652799</v>
+        <v>14.06042841557038</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>33.79332680881893</v>
+        <v>34.08815321218719</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>42.54145158738066</v>
+        <v>42.5380299618027</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>19.21956314981817</v>
+        <v>18.8995981464077</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>29.26950611007066</v>
+        <v>29.35912361590728</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>35.29042740343187</v>
+        <v>35.36695176172723</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>15.10536346229266</v>
+        <v>14.87680837715993</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>29.72673677466098</v>
+        <v>30.21163148560954</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>36.9950557364495</v>
+        <v>37.13893958328993</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>1.258273292874318</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>1.667373786562608</v>
+        <v>1.667373786562607</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.5267045279408156</v>
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.1227289331139189</v>
+        <v>0.1205384035963105</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.8433085932416118</v>
+        <v>0.8408818354614487</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>1.204829274713988</v>
+        <v>1.193317362094923</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.2886311884813029</v>
+        <v>0.2441831708723649</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.5854597707583742</v>
+        <v>0.6076884371306355</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.8609117531835274</v>
+        <v>0.8512915551956008</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2679580949718776</v>
+        <v>0.269905775193889</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.8082923055209996</v>
+        <v>0.8033237896458635</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>1.089431613020935</v>
+        <v>1.110995217937068</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.7350437956364136</v>
+        <v>0.7533403563952095</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.769147296592324</v>
+        <v>1.81458621692331</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>2.296406547505109</v>
+        <v>2.323704773181359</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.840778356267415</v>
+        <v>0.817348489179307</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>1.251335608572311</v>
+        <v>1.26683725163021</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>1.555100223182093</v>
+        <v>1.562410329258318</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.6805110879053516</v>
+        <v>0.6668135541150169</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>1.373930801067004</v>
+        <v>1.361778072499287</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>1.686819493786146</v>
+        <v>1.703428871516398</v>
       </c>
     </row>
     <row r="46">
@@ -2144,7 +2144,7 @@
         <v>16.25877624801641</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>32.91855071957717</v>
+        <v>32.91855071957715</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>-1.864319344482035</v>
@@ -2153,7 +2153,7 @@
         <v>19.33380121397748</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>40.47111960270964</v>
+        <v>40.47111960270963</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>-4.771872501674412</v>
@@ -2162,7 +2162,7 @@
         <v>17.87206926957071</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>36.81719544147558</v>
+        <v>36.81719544147556</v>
       </c>
     </row>
     <row r="47">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-13.93086988890621</v>
+        <v>-14.18946389640599</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>10.67906721407134</v>
+        <v>10.67717743369299</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>27.35629485391136</v>
+        <v>27.59952450407944</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-6.85007810054033</v>
+        <v>-7.087214188278261</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>13.82802466254581</v>
+        <v>13.67111996427084</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>35.63115528347154</v>
+        <v>35.92563297119656</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-8.786244905999741</v>
+        <v>-8.46047204881441</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>14.13835362094335</v>
+        <v>13.92937960455484</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>33.3670673957697</v>
+        <v>33.11836060703745</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-2.988091002804314</v>
+        <v>-2.74102919991696</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>21.98137755115048</v>
+        <v>22.23795698871689</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>38.30622866733481</v>
+        <v>37.94023267698664</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>3.545093809105346</v>
+        <v>3.973231745348986</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>25.10730066439955</v>
+        <v>24.66927257173814</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>45.20711856323316</v>
+        <v>45.15437225023314</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>-0.9550331545584353</v>
+        <v>-0.7870904640989681</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>22.18823997747806</v>
+        <v>21.86176761251765</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>40.73860060034119</v>
+        <v>40.48657368529971</v>
       </c>
     </row>
     <row r="49">
@@ -2249,7 +2249,7 @@
         <v>0.4607011909046354</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>0.9327648826715399</v>
+        <v>0.9327648826715392</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>-0.05557636248459217</v>
@@ -2267,7 +2267,7 @@
         <v>0.5200208055524289</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>1.071264180038467</v>
+        <v>1.071264180038466</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.3589652020155408</v>
+        <v>-0.362684390017862</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.2739107442953099</v>
+        <v>0.2805485457122633</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.6889137477235231</v>
+        <v>0.7104502094533947</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.1851898300214658</v>
+        <v>-0.1959659302921767</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.3784215442134279</v>
+        <v>0.3794464359779747</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.9698669519878137</v>
+        <v>0.9625360512703861</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.2419998126263115</v>
+        <v>-0.2339905138653393</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.383809028509627</v>
+        <v>0.3789189802943117</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.9018355548916414</v>
+        <v>0.8934592268876477</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.08718011917543896</v>
+        <v>-0.08626850850494601</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.685375007321967</v>
+        <v>0.6968988018605868</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>1.222774952869201</v>
+        <v>1.187732936010874</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.1163271644820896</v>
+        <v>0.1271031343142016</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.8346439479355032</v>
+        <v>0.8143414354526195</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>1.505916871414158</v>
+        <v>1.492611399631286</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>-0.03380798915338008</v>
+        <v>-0.0239218020051739</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.692096249055512</v>
+        <v>0.6771999479380695</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>1.276822841104322</v>
+        <v>1.265772943951429</v>
       </c>
     </row>
     <row r="52">
@@ -2358,7 +2358,7 @@
         <v>10.96077028047301</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>27.24706102998037</v>
+        <v>27.24706102998036</v>
       </c>
       <c r="F52" s="5" t="n">
         <v>2.840190937754522</v>
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-2.986401354059087</v>
+        <v>-3.109726968397379</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>8.434153162967473</v>
+        <v>8.084894410053913</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>24.67938371366511</v>
+        <v>24.52121014934524</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>0.08584294004480326</v>
+        <v>0.4923614044392379</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>9.569213076029005</v>
+        <v>9.571278236136088</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>25.19770994791568</v>
+        <v>25.49706416398991</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>-0.5389628799924258</v>
+        <v>-0.4253841021150337</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>9.790156053392449</v>
+        <v>9.456115650191901</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>25.6570881737478</v>
+        <v>25.49658162986179</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>2.237600256996535</v>
+        <v>2.233453887469834</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>13.53367534097375</v>
+        <v>13.85095000118928</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>29.96431004178175</v>
+        <v>29.74711541484886</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>5.2018683047173</v>
+        <v>5.510221240560943</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>14.52486469414761</v>
+        <v>14.6103380414761</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>30.0037407326218</v>
+        <v>30.10774572676463</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>3.032371001902225</v>
+        <v>3.143768630337587</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>13.48965465572812</v>
+        <v>13.27322966583507</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>29.13821238768484</v>
+        <v>29.15961315312502</v>
       </c>
     </row>
     <row r="55">
@@ -2463,7 +2463,7 @@
         <v>0.3676253119215862</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>0.9138691035189505</v>
+        <v>0.9138691035189501</v>
       </c>
       <c r="F55" s="6" t="n">
         <v>0.0904832561266754</v>
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.09477794073343343</v>
+        <v>-0.09929597441232584</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>0.267121471624182</v>
+        <v>0.2597409707844093</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.7894902557967135</v>
+        <v>0.7837417167330388</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.0026110185075994</v>
+        <v>0.0151127906802426</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.2926298172856577</v>
+        <v>0.2915246236617426</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.7580072926600535</v>
+        <v>0.7773909037087836</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>-0.01688526440907688</v>
+        <v>-0.01361209765037586</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>0.3098751597833988</v>
+        <v>0.2980681675536855</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>0.8112721505948591</v>
+        <v>0.8054336061366234</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.07941086313430842</v>
+        <v>0.07735026722038836</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.4784521448663412</v>
+        <v>0.4836977132028131</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>1.07075635020895</v>
+        <v>1.050682829959299</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.1726481391560424</v>
+        <v>0.1842439243137201</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.4879332694249585</v>
+        <v>0.4840249756569617</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>1.006715183501915</v>
+        <v>1.006818238637177</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.1027970343084434</v>
+        <v>0.105254948050358</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.4545499032388818</v>
+        <v>0.4469609415093198</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.9833298522034832</v>
+        <v>0.9878141947581437</v>
       </c>
     </row>
     <row r="58">
